--- a/raw_ideas_standardized_sample100.xlsx
+++ b/raw_ideas_standardized_sample100.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hujin\Dropbox\AIIdeation_Update\AIIdeation_Update_20250728\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F299838B-6579-4E3D-B324-14AEC74957E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A111C5A-15F8-4E9C-A684-10FC63E3619B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5237" yWindow="2083" windowWidth="24686" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$1250</definedName>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="402">
   <si>
     <t>idea</t>
   </si>
@@ -1249,12 +1248,6 @@
   </si>
   <si>
     <t>This toy vehicle can operate on both land and water surfaces. It is constructed using safe, durable materials that allow seamless transition between driving and floating.</t>
-  </si>
-  <si>
-    <t>$40.00 / 1M input tokens</t>
-  </si>
-  <si>
-    <t>GPT-4.1 nano</t>
   </si>
 </sst>
 </file>
@@ -1311,12 +1304,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4253,41 +4245,4 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24A2240-FB67-4B48-B0E2-93915A47CB97}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="21.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.84375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="2">
-        <f>331735/4</f>
-        <v>82933.75</v>
-      </c>
-      <c r="B1">
-        <f>(A1/1000000)*3</f>
-        <v>0.24880125</v>
-      </c>
-      <c r="C1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>